--- a/Reddit_p4.xlsx
+++ b/Reddit_p4.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiawei/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3205AD5-C9DE-8945-A513-6C8D3398D78C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="20960" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -487,8 +493,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +506,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,17 +553,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -597,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,9 +664,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,6 +716,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,15 +909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="97.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="58.1640625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -865,28 +943,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
@@ -905,48 +983,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -965,8 +1043,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -985,8 +1063,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
@@ -1005,28 +1083,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
@@ -1045,8 +1123,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
@@ -1065,8 +1143,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
@@ -1085,8 +1163,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
@@ -1105,8 +1183,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -1122,8 +1200,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
@@ -1142,8 +1220,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
@@ -1162,8 +1240,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
@@ -1182,8 +1260,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
@@ -1202,8 +1280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
@@ -1222,8 +1300,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
@@ -1242,8 +1320,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
@@ -1262,8 +1340,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
@@ -1282,68 +1360,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
@@ -1362,88 +1440,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
@@ -1462,8 +1540,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
@@ -1482,8 +1560,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
@@ -1502,8 +1580,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
@@ -1522,8 +1600,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
@@ -1542,8 +1620,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
@@ -1562,8 +1640,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
@@ -1582,8 +1660,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
@@ -1602,8 +1680,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
@@ -1622,8 +1700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
@@ -1642,8 +1720,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
@@ -1662,8 +1740,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
@@ -1682,8 +1760,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
@@ -1702,8 +1780,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
@@ -1722,8 +1800,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="45" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
@@ -1742,8 +1820,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
@@ -1762,28 +1840,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
@@ -1802,8 +1880,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="49" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
@@ -1822,8 +1900,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
@@ -1842,8 +1920,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
